--- a/Tableausyntheese-EpreuveE4-BTSSIO2022.xlsx
+++ b/Tableausyntheese-EpreuveE4-BTSSIO2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\portfolio-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74955AB3-9443-4C9C-B6F4-3538D3F95154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129687D6-EC64-4789-9239-F80839A0C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>TP Active Directory</t>
+  </si>
+  <si>
+    <t>Projet Transversal - Installation linux</t>
   </si>
 </sst>
 </file>
@@ -767,15 +770,39 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,30 +834,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1245,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1256,56 +1259,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="51"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="38"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1317,22 +1320,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1355,8 +1358,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
@@ -1412,16 +1415,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1564,7 +1567,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -1900,10 +1903,12 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -1945,16 +1950,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2286,9 +2291,7 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -2333,16 +2336,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2387,7 +2390,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="25"/>
       <c r="F28" s="16"/>
       <c r="G28" s="25"/>
@@ -2811,11 +2814,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2823,6 +2821,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableausyntheese-EpreuveE4-BTSSIO2022.xlsx
+++ b/Tableausyntheese-EpreuveE4-BTSSIO2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\portfolio-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129687D6-EC64-4789-9239-F80839A0C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F603E2F-521D-49C7-B316-9083572DE3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,9 +770,48 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,45 +834,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1245,11 +1245,11 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -1259,56 +1259,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="51"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1320,22 +1320,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1358,8 +1358,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
@@ -1415,16 +1415,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1906,7 +1906,9 @@
       <c r="A18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="28">
+        <v>44256</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="D18" s="25"/>
       <c r="E18" s="16"/>
@@ -1950,16 +1952,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2336,16 +2338,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2814,6 +2816,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2821,11 +2828,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
